--- a/ArcaeaWorldCalc_0.1.xlsx
+++ b/ArcaeaWorldCalc_0.1.xlsx
@@ -734,7 +734,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -758,7 +758,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>9911000</v>
+        <v>9950659</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>10.5</v>
@@ -843,7 +843,7 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
         <f aca="false">IF(A2&gt;=10000000,B2+2,IF(A2&gt;=9800000,(A2-9800000)/200000+B2+1,B2+(A2-9500000)/300000))</f>
-        <v>12.055</v>
+        <v>12.253295</v>
       </c>
       <c r="B14" s="14" t="n">
         <f aca="false">A8/C8</f>
@@ -868,15 +868,15 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <f aca="false">2.5+2.45*SQRT(A14)</f>
-        <v>11.006476209336</v>
+        <v>11.0761531724603</v>
       </c>
       <c r="B16" s="1" t="n">
         <f aca="false">A16*(A4/50)</f>
-        <v>35.2207238698753</v>
+        <v>35.4436901518728</v>
       </c>
       <c r="C16" s="16" t="n">
         <f aca="false">A8/B16</f>
-        <v>74.359630133555</v>
+        <v>73.8918546228634</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,7 +907,7 @@
       </c>
       <c r="B24" s="1" t="n">
         <f aca="false">A8/B16</f>
-        <v>74.359630133555</v>
+        <v>73.8918546228634</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,7 +916,7 @@
       </c>
       <c r="B25" s="1" t="n">
         <f aca="false">A8/(A6*12*B16)</f>
-        <v>3.09831792223146</v>
+        <v>3.07882727595264</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,7 +925,7 @@
       </c>
       <c r="B26" s="1" t="n">
         <f aca="false">A8/((A6*12+6)*B16)</f>
-        <v>2.47865433778517</v>
+        <v>2.46306182076211</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,7 +940,7 @@
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">A8/(A16*(B4/50))</f>
-        <v>74.359630133555</v>
+        <v>73.8918546228634</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,7 +949,7 @@
       </c>
       <c r="B30" s="1" t="n">
         <f aca="false">A8/(A6*12*(A16*B4/50))</f>
-        <v>3.09831792223146</v>
+        <v>3.07882727595264</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
